--- a/データ検証/eipa/data/en/EN_16831-1.xlsx
+++ b/データ検証/eipa/data/en/EN_16831-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/eipa/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D864381-0990-BF42-81F3-39B6DDB68A63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575878A6-3C0E-614E-A31B-743E4E442080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="560" windowWidth="20800" windowHeight="14800" xr2:uid="{FE4C27AB-FFF7-4BC9-B473-7EBAC36AF9AA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="1377">
   <si>
     <t>The sequential number required in Article 226(2) of the directive 2006/112/EC [2], to uniquely identify the Invoice within the business context, time-frame, operating systems and records of the Seller. It may be based on one or more series of numbers, which may include alphanumeric characters. No identification scheme is to be used.</t>
   </si>
@@ -2371,9 +2371,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>l..n</t>
-  </si>
-  <si>
     <t>Supporting document reference</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4487,6 +4484,73 @@
   </si>
   <si>
     <t>If no identification scheme is specified, it should be known by Buyer and Seller.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1..n</t>
+  </si>
+  <si>
+    <t>BT-18A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-29A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-30A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-34A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-46A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-47A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-49A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-60A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-61A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-71A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-125A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-125B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-128A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-157A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-158A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BT-158B</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5195,8 +5259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2799A98-B016-41C8-B322-0DF504356FB9}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D199" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -5214,28 +5278,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1309</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1310</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1">
@@ -5331,7 +5395,7 @@
         <v>584</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>652</v>
@@ -5357,7 +5421,7 @@
         <v>585</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>653</v>
@@ -5386,7 +5450,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>6</v>
@@ -5412,7 +5476,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>707</v>
@@ -5650,16 +5714,16 @@
         <v>578</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>1348</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>661</v>
@@ -5670,22 +5734,22 @@
     </row>
     <row r="19" spans="1:8" ht="24" customHeight="1">
       <c r="A19" s="9" t="s">
-        <v>323</v>
+        <v>1361</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>578</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -5785,7 +5849,7 @@
         <v>5</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="24" customHeight="1">
@@ -5908,7 +5972,7 @@
         <v>46</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H28" s="6"/>
     </row>
@@ -5930,7 +5994,7 @@
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>16</v>
@@ -5956,7 +6020,7 @@
         <v>50</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>6</v>
@@ -6042,16 +6106,16 @@
         <v>579</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>1352</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>1353</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>79</v>
@@ -6062,22 +6126,22 @@
     </row>
     <row r="35" spans="1:8" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>335</v>
+        <v>1362</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -6090,16 +6154,16 @@
         <v>579</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>1357</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>1358</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>663</v>
@@ -6110,7 +6174,7 @@
     </row>
     <row r="37" spans="1:8" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>336</v>
+        <v>1363</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>579</v>
@@ -6119,13 +6183,13 @@
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -6216,13 +6280,13 @@
         <v>579</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1345</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="3" t="s">
@@ -6234,19 +6298,19 @@
     </row>
     <row r="42" spans="1:8" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>339</v>
+        <v>1364</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>640</v>
@@ -6445,7 +6509,7 @@
         <v>597</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>69</v>
@@ -6630,16 +6694,16 @@
         <v>579</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>79</v>
@@ -6650,22 +6714,22 @@
     </row>
     <row r="59" spans="1:8" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>347</v>
+        <v>1365</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -6678,16 +6742,16 @@
         <v>579</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>665</v>
@@ -6698,22 +6762,22 @@
     </row>
     <row r="61" spans="1:8" ht="24" customHeight="1">
       <c r="A61" s="25" t="s">
-        <v>348</v>
+        <v>1366</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -6735,7 +6799,7 @@
         <v>598</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>666</v>
@@ -6752,13 +6816,13 @@
         <v>579</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="3" t="s">
@@ -6770,19 +6834,19 @@
     </row>
     <row r="64" spans="1:8" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>350</v>
+        <v>1367</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>640</v>
@@ -6981,7 +7045,7 @@
         <v>597</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>69</v>
@@ -7108,7 +7172,7 @@
         <v>111</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H77" s="6"/>
     </row>
@@ -7132,7 +7196,7 @@
         <v>112</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H78" s="3" t="s">
         <v>39</v>
@@ -7146,19 +7210,19 @@
         <v>579</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D79" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>1330</v>
-      </c>
       <c r="F79" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H79" s="3" t="s">
         <v>176</v>
@@ -7166,22 +7230,22 @@
     </row>
     <row r="80" spans="1:8" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>360</v>
+        <v>1368</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -7194,16 +7258,16 @@
         <v>579</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D81" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>1325</v>
-      </c>
       <c r="F81" s="3" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>667</v>
@@ -7214,22 +7278,22 @@
     </row>
     <row r="82" spans="1:8" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>361</v>
+        <v>1369</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>579</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -7297,7 +7361,7 @@
         <v>601</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>663</v>
@@ -7497,7 +7561,7 @@
         <v>597</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>69</v>
@@ -7562,16 +7626,16 @@
         <v>579</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D96" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>1320</v>
-      </c>
       <c r="F96" s="3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>145</v>
@@ -7582,7 +7646,7 @@
     </row>
     <row r="97" spans="1:8" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>372</v>
+        <v>1370</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>579</v>
@@ -7591,13 +7655,13 @@
         <v>13</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
@@ -7893,7 +7957,7 @@
         <v>597</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>145</v>
@@ -7993,7 +8057,7 @@
         <v>605</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>670</v>
@@ -8950,7 +9014,7 @@
         <v>578</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>712</v>
+        <v>1360</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>545</v>
@@ -9044,7 +9108,7 @@
     </row>
     <row r="156" spans="1:8" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>579</v>
@@ -9114,7 +9178,7 @@
         <v>227</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H158" s="3" t="s">
         <v>707</v>
@@ -9155,7 +9219,7 @@
         <v>2</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>624</v>
@@ -9211,7 +9275,7 @@
         <v>626</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>689</v>
@@ -9231,13 +9295,13 @@
         <v>13</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>690</v>
@@ -9248,7 +9312,7 @@
     </row>
     <row r="164" spans="1:8" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>422</v>
+        <v>1371</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>579</v>
@@ -9257,20 +9321,20 @@
         <v>2</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
     <row r="165" spans="1:8" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>422</v>
+        <v>1372</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>579</v>
@@ -9279,10 +9343,10 @@
         <v>2</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -9296,7 +9360,7 @@
         <v>578</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>712</v>
+        <v>1360</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>554</v>
@@ -9306,7 +9370,7 @@
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H166" s="6"/>
     </row>
@@ -9386,7 +9450,7 @@
     </row>
     <row r="170" spans="1:8" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>425</v>
+        <v>1373</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>579</v>
@@ -9447,7 +9511,7 @@
         <v>239</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>692</v>
@@ -9473,7 +9537,7 @@
         <v>240</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G173" s="3" t="s">
         <v>693</v>
@@ -10248,13 +10312,13 @@
         <v>580</v>
       </c>
       <c r="C205" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D205" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>725</v>
-      </c>
       <c r="E205" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="3" t="s">
@@ -10266,7 +10330,7 @@
     </row>
     <row r="206" spans="1:8" ht="24" customHeight="1">
       <c r="A206" s="9" t="s">
-        <v>304</v>
+        <v>1374</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>580</v>
@@ -10275,10 +10339,10 @@
         <v>2</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>711</v>
@@ -10294,16 +10358,16 @@
         <v>580</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G207" s="3" t="s">
         <v>705</v>
@@ -10314,7 +10378,7 @@
     </row>
     <row r="208" spans="1:8" ht="24" customHeight="1">
       <c r="A208" s="9" t="s">
-        <v>451</v>
+        <v>1375</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>580</v>
@@ -10323,20 +10387,20 @@
         <v>2</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
     <row r="209" spans="1:8" ht="24" customHeight="1">
       <c r="A209" s="9" t="s">
-        <v>451</v>
+        <v>1376</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>580</v>
@@ -10345,10 +10409,10 @@
         <v>13</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -10371,7 +10435,7 @@
         <v>634</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G210" s="3" t="s">
         <v>706</v>
@@ -10419,7 +10483,7 @@
         <v>308</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>309</v>
@@ -10445,7 +10509,7 @@
         <v>312</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G213" s="3" t="s">
         <v>309</v>
@@ -10477,194 +10541,194 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>758</v>
+      </c>
+      <c r="B6" t="s">
         <v>759</v>
-      </c>
-      <c r="B6" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>760</v>
+      </c>
+      <c r="B7" t="s">
         <v>761</v>
-      </c>
-      <c r="B7" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B8" t="s">
         <v>763</v>
-      </c>
-      <c r="B8" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>766</v>
+      </c>
+      <c r="B10" t="s">
         <v>767</v>
-      </c>
-      <c r="B10" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>770</v>
+      </c>
+      <c r="B12" t="s">
         <v>771</v>
-      </c>
-      <c r="B12" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B13" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B14" t="s">
         <v>775</v>
-      </c>
-      <c r="B14" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>776</v>
+      </c>
+      <c r="B15" t="s">
         <v>777</v>
-      </c>
-      <c r="B15" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B16" t="s">
         <v>779</v>
-      </c>
-      <c r="B16" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>780</v>
+      </c>
+      <c r="B17" t="s">
         <v>781</v>
-      </c>
-      <c r="B17" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>782</v>
+      </c>
+      <c r="B18" t="s">
         <v>783</v>
-      </c>
-      <c r="B18" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B21" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>790</v>
+      </c>
+      <c r="B22" t="s">
         <v>791</v>
-      </c>
-      <c r="B22" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>792</v>
+      </c>
+      <c r="B23" t="s">
         <v>793</v>
-      </c>
-      <c r="B23" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10672,31 +10736,31 @@
         <v>705</v>
       </c>
       <c r="B25" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>797</v>
+      </c>
+      <c r="B26" t="s">
         <v>798</v>
-      </c>
-      <c r="B26" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>799</v>
+      </c>
+      <c r="B27" t="s">
         <v>800</v>
-      </c>
-      <c r="B27" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
+        <v>801</v>
+      </c>
+      <c r="B28" t="s">
         <v>802</v>
-      </c>
-      <c r="B28" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10704,7 +10768,7 @@
         <v>309</v>
       </c>
       <c r="B29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10712,7 +10776,7 @@
         <v>706</v>
       </c>
       <c r="B30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10720,7 +10784,7 @@
         <v>252</v>
       </c>
       <c r="B31" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -10728,7 +10792,7 @@
         <v>669</v>
       </c>
       <c r="B32" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10736,7 +10800,7 @@
         <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -10744,7 +10808,7 @@
         <v>661</v>
       </c>
       <c r="B34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -10752,7 +10816,7 @@
         <v>135</v>
       </c>
       <c r="B35" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -10760,7 +10824,7 @@
         <v>690</v>
       </c>
       <c r="B36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -10768,31 +10832,31 @@
         <v>689</v>
       </c>
       <c r="B37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
+        <v>812</v>
+      </c>
+      <c r="B38" t="s">
         <v>813</v>
-      </c>
-      <c r="B38" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
+        <v>814</v>
+      </c>
+      <c r="B39" t="s">
         <v>815</v>
-      </c>
-      <c r="B39" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>816</v>
+      </c>
+      <c r="B40" t="s">
         <v>817</v>
-      </c>
-      <c r="B40" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -10800,7 +10864,7 @@
         <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -10808,7 +10872,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -10816,7 +10880,7 @@
         <v>696</v>
       </c>
       <c r="B43" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -10824,23 +10888,23 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>822</v>
+      </c>
+      <c r="B45" t="s">
         <v>823</v>
-      </c>
-      <c r="B45" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
+        <v>824</v>
+      </c>
+      <c r="B46" t="s">
         <v>825</v>
-      </c>
-      <c r="B46" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -10848,7 +10912,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -10856,7 +10920,7 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -10864,7 +10928,7 @@
         <v>685</v>
       </c>
       <c r="B49" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -10872,15 +10936,15 @@
         <v>684</v>
       </c>
       <c r="B50" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
+        <v>829</v>
+      </c>
+      <c r="B51" t="s">
         <v>830</v>
-      </c>
-      <c r="B51" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -10888,7 +10952,7 @@
         <v>663</v>
       </c>
       <c r="B52" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -10896,7 +10960,7 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -10904,15 +10968,15 @@
         <v>653</v>
       </c>
       <c r="B54" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
+        <v>834</v>
+      </c>
+      <c r="B55" t="s">
         <v>835</v>
-      </c>
-      <c r="B55" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -10920,7 +10984,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -10928,7 +10992,7 @@
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -10936,15 +11000,15 @@
         <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>856</v>
+      </c>
+      <c r="B59" t="s">
         <v>857</v>
-      </c>
-      <c r="B59" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -10952,31 +11016,31 @@
         <v>654</v>
       </c>
       <c r="B60" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
+        <v>838</v>
+      </c>
+      <c r="B61" t="s">
         <v>839</v>
-      </c>
-      <c r="B61" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
+        <v>840</v>
+      </c>
+      <c r="B62" t="s">
         <v>841</v>
-      </c>
-      <c r="B62" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
+        <v>842</v>
+      </c>
+      <c r="B63" t="s">
         <v>843</v>
-      </c>
-      <c r="B63" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -10984,39 +11048,39 @@
         <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
+        <v>845</v>
+      </c>
+      <c r="B65" t="s">
         <v>846</v>
-      </c>
-      <c r="B65" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
+        <v>847</v>
+      </c>
+      <c r="B66" t="s">
         <v>848</v>
-      </c>
-      <c r="B66" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
+        <v>849</v>
+      </c>
+      <c r="B67" t="s">
         <v>850</v>
-      </c>
-      <c r="B67" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>851</v>
+      </c>
+      <c r="B68" t="s">
         <v>852</v>
-      </c>
-      <c r="B68" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -11024,15 +11088,15 @@
         <v>175</v>
       </c>
       <c r="B69" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
+        <v>854</v>
+      </c>
+      <c r="B70" t="s">
         <v>855</v>
-      </c>
-      <c r="B70" t="s">
-        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -11061,27 +11125,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1315</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1316</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
+        <v>858</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>971</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>972</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>860</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>330</v>
@@ -11089,13 +11153,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>978</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>861</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>979</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>862</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>313</v>
@@ -11103,13 +11167,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
+        <v>862</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>864</v>
-      </c>
       <c r="C4" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>1</v>
@@ -11117,13 +11181,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>866</v>
-      </c>
       <c r="C5" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>314</v>
@@ -11131,13 +11195,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>315</v>
@@ -11145,13 +11209,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>869</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>870</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>333</v>
@@ -11159,13 +11223,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>871</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>872</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>873</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>93</v>
@@ -11173,13 +11237,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>874</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>875</v>
-      </c>
       <c r="C9" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>340</v>
@@ -11187,13 +11251,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>876</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>877</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>345</v>
@@ -11201,13 +11265,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>879</v>
-      </c>
       <c r="C11" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>351</v>
@@ -11215,13 +11279,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>356</v>
@@ -11229,13 +11293,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>881</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>882</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>202</v>
@@ -11243,13 +11307,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>883</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>884</v>
-      </c>
       <c r="C14" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>407</v>
@@ -11257,13 +11321,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>886</v>
-      </c>
       <c r="C15" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>409</v>
@@ -11271,13 +11335,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>888</v>
-      </c>
       <c r="C16" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>412</v>
@@ -11285,13 +11349,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>890</v>
-      </c>
       <c r="C17" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>423</v>
@@ -11299,13 +11363,13 @@
     </row>
     <row r="18" spans="1:4" ht="30">
       <c r="A18" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>891</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>974</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>892</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>359</v>
@@ -11313,13 +11377,13 @@
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="11" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>363</v>
@@ -11327,13 +11391,13 @@
     </row>
     <row r="20" spans="1:4" ht="30">
       <c r="A20" s="11" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>365</v>
@@ -11341,13 +11405,13 @@
     </row>
     <row r="21" spans="1:4" ht="45">
       <c r="A21" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>370</v>
@@ -11355,13 +11419,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>975</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>895</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>976</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>896</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>231</v>
@@ -11369,13 +11433,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>898</v>
-      </c>
       <c r="C23" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>426</v>
@@ -11383,13 +11447,13 @@
     </row>
     <row r="24" spans="1:4" ht="30">
       <c r="A24" s="11" t="s">
+        <v>898</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>899</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>900</v>
-      </c>
       <c r="C24" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>427</v>
@@ -11397,13 +11461,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>902</v>
-      </c>
       <c r="C25" s="11" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>428</v>
@@ -11411,13 +11475,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="11" t="s">
+        <v>902</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>904</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>905</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>296</v>
@@ -11425,13 +11489,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
+        <v>905</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>907</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>908</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>441</v>
@@ -11439,13 +11503,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="11" t="s">
+        <v>908</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>976</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>909</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>977</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>910</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>441</v>
@@ -11453,13 +11517,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>912</v>
-      </c>
       <c r="C29" s="11" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>443</v>
@@ -11467,13 +11531,13 @@
     </row>
     <row r="30" spans="1:4" ht="45">
       <c r="A30" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>136</v>
@@ -11481,13 +11545,13 @@
     </row>
     <row r="31" spans="1:4" ht="45">
       <c r="A31" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>253</v>
@@ -11495,13 +11559,13 @@
     </row>
     <row r="32" spans="1:4" ht="30">
       <c r="A32" s="11" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>178</v>
@@ -11509,13 +11573,13 @@
     </row>
     <row r="33" spans="1:4" ht="30">
       <c r="A33" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D33" s="11" t="s">
         <v>395</v>
@@ -11523,27 +11587,27 @@
     </row>
     <row r="34" spans="1:4" ht="30">
       <c r="A34" s="11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="30">
       <c r="A35" s="11" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>399</v>
@@ -11551,13 +11615,13 @@
     </row>
     <row r="36" spans="1:4" ht="30">
       <c r="A36" s="13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>402</v>
@@ -11565,27 +11629,27 @@
     </row>
     <row r="37" spans="1:4" ht="30">
       <c r="A37" s="16" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
       <c r="A38" s="13" t="s">
+        <v>916</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>917</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>918</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>919</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>258</v>
@@ -11593,27 +11657,27 @@
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="13" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>921</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>922</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>267</v>
@@ -11621,27 +11685,27 @@
     </row>
     <row r="41" spans="1:4" ht="30">
       <c r="A41" s="13" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>923</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="C42" s="13" t="s">
         <v>924</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>925</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>414</v>
@@ -11649,13 +11713,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="B43" s="13" t="s">
-        <v>927</v>
-      </c>
       <c r="C43" s="13" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>415</v>
@@ -11663,41 +11727,41 @@
     </row>
     <row r="44" spans="1:4" ht="30">
       <c r="A44" s="13" t="s">
+        <v>927</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>928</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="C44" s="13" t="s">
+        <v>924</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>929</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>925</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>930</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="30">
       <c r="A45" s="13" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="13" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>381</v>
@@ -11705,13 +11769,13 @@
     </row>
     <row r="47" spans="1:4" ht="30">
       <c r="A47" s="13" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>384</v>
@@ -11719,13 +11783,13 @@
     </row>
     <row r="48" spans="1:4" ht="30">
       <c r="A48" s="14" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>388</v>
@@ -11733,13 +11797,13 @@
     </row>
     <row r="49" spans="1:4" ht="30">
       <c r="A49" s="15" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>419</v>
@@ -11747,13 +11811,13 @@
     </row>
     <row r="50" spans="1:4" ht="30">
       <c r="A50" s="13" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>408</v>
@@ -11761,27 +11825,27 @@
     </row>
     <row r="51" spans="1:4" ht="30">
       <c r="A51" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>935</v>
-      </c>
       <c r="D51" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="30">
       <c r="A52" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>47</v>
@@ -11789,13 +11853,13 @@
     </row>
     <row r="53" spans="1:4" ht="30">
       <c r="A53" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>364</v>
@@ -11803,13 +11867,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="11" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>380</v>
@@ -11817,13 +11881,13 @@
     </row>
     <row r="55" spans="1:4" ht="45">
       <c r="A55" s="11" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>384</v>
@@ -11831,13 +11895,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>339</v>
@@ -11845,13 +11909,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="11" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>350</v>
@@ -11859,13 +11923,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>304</v>
@@ -11873,13 +11937,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>451</v>
@@ -11910,41 +11974,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>1315</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>1316</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
       <c r="A2" s="17" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30">
       <c r="A3" s="17" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>1021</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>1022</v>
-      </c>
       <c r="C3" s="17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>446</v>
@@ -11952,83 +12016,83 @@
     </row>
     <row r="4" spans="1:4" ht="45">
       <c r="A4" s="17" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" s="17" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45">
       <c r="A6" s="17" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45">
       <c r="A7" s="17" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
       <c r="A8" s="17" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
       <c r="A9" s="17" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>202</v>
@@ -12036,13 +12100,13 @@
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" s="17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>405</v>
@@ -12050,13 +12114,13 @@
     </row>
     <row r="11" spans="1:4" ht="30">
       <c r="A11" s="17" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>406</v>
@@ -12064,13 +12128,13 @@
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" s="17" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>407</v>
@@ -12078,13 +12142,13 @@
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" s="17" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>210</v>
@@ -12092,13 +12156,13 @@
     </row>
     <row r="14" spans="1:4" ht="45">
       <c r="A14" s="17" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>409</v>
@@ -12106,13 +12170,13 @@
     </row>
     <row r="15" spans="1:4" ht="45">
       <c r="A15" s="17" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>412</v>
@@ -12120,13 +12184,13 @@
     </row>
     <row r="16" spans="1:4" ht="45">
       <c r="A16" s="17" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>415</v>
@@ -12134,13 +12198,13 @@
     </row>
     <row r="17" spans="1:4" ht="30">
       <c r="A17" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>1031</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>1032</v>
-      </c>
       <c r="C17" s="17" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>413</v>
@@ -12148,114 +12212,114 @@
     </row>
     <row r="18" spans="1:4" ht="45">
       <c r="A18" s="17" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="45">
       <c r="A19" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>1035</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="45">
       <c r="A20" s="18" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>1036</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>1038</v>
-      </c>
       <c r="D20" s="18" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45">
       <c r="A21" s="18" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>1039</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>1040</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>1041</v>
-      </c>
       <c r="D21" s="18" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45">
       <c r="A22" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>1042</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>1043</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>1044</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="45">
       <c r="A23" s="18" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>1045</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>1046</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="45">
       <c r="A24" s="18" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>1047</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>1048</v>
-      </c>
       <c r="C24" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="60">
       <c r="A25" s="18" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
   </sheetData>
@@ -12282,106 +12346,106 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1085</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="17" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2" ht="30">
       <c r="A3" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>1088</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" s="17" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>1090</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>1093</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
       <c r="A7" s="17" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>1095</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>1097</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
       <c r="A9" s="17" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>1099</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="17" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="17" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>1102</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="17" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>1104</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B13" s="19"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="17" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -12407,797 +12471,797 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45">
       <c r="A2" s="17" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45">
       <c r="A3" s="17" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45">
       <c r="A4" s="17" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45">
       <c r="A5" s="17" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
       <c r="A6" s="17" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30">
       <c r="A7" s="17" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="17" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="75">
       <c r="A9" s="17" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30">
       <c r="A10" s="17" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30">
       <c r="A11" s="17" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
       <c r="A12" s="17" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45">
       <c r="A13" s="17" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45">
       <c r="A14" s="17" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45">
       <c r="A15" s="17" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30">
       <c r="A16" s="17" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30">
       <c r="A17" s="17" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30">
       <c r="A18" s="17" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="60">
       <c r="A19" s="17" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30">
       <c r="A20" s="17" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30">
       <c r="A21" s="17" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45">
       <c r="A22" s="17" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45">
       <c r="A23" s="17" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="45">
       <c r="A24" s="17" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="45">
       <c r="A25" s="17" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" s="17" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" s="17" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="60">
       <c r="A29" s="17" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="17" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30">
       <c r="A31" s="17" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="45">
       <c r="A32" s="17" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="17" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="45">
       <c r="A34" s="17" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="45">
       <c r="A35" s="17" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
       <c r="A36" s="17" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
       <c r="A37" s="17" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="30">
       <c r="A38" s="17" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="60">
       <c r="A39" s="17" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="30">
       <c r="A40" s="17" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="45">
       <c r="A41" s="17" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="45">
       <c r="A42" s="17" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="45">
       <c r="A43" s="17" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="45">
       <c r="A44" s="17" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="45">
       <c r="A45" s="17" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="30">
       <c r="A46" s="17" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30">
       <c r="A47" s="17" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="30">
       <c r="A48" s="17" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="60">
       <c r="A49" s="17" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="30">
       <c r="A50" s="17" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="30">
       <c r="A51" s="17" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="30">
       <c r="A52" s="19"/>
       <c r="B52" s="17" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="30">
       <c r="A53" s="17" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="30">
       <c r="A54" s="17" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="45">
       <c r="A55" s="17" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="45">
       <c r="A56" s="17" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="45">
       <c r="A57" s="17" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="45">
       <c r="A58" s="17" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30">
       <c r="A59" s="17" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="30">
       <c r="A60" s="17" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="30">
       <c r="A61" s="17" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="60">
       <c r="A62" s="17" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="30">
       <c r="A63" s="17" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="45">
       <c r="A64" s="17" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="45">
       <c r="A65" s="17" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="45">
       <c r="A66" s="17" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="45">
       <c r="A67" s="17" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="45">
       <c r="A68" s="17" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="30">
       <c r="A69" s="17" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30">
       <c r="A70" s="17" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="30">
       <c r="A71" s="17" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="60">
       <c r="A72" s="17" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="30">
       <c r="A73" s="17" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="45">
       <c r="A74" s="17" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="17" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="45">
       <c r="A76" s="17" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="45">
       <c r="A77" s="17" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="45">
       <c r="A78" s="17" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="45">
       <c r="A79" s="17" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C79" s="22"/>
     </row>
     <row r="80" spans="1:3" ht="45">
       <c r="A80" s="17" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C80" s="22"/>
     </row>
     <row r="81" spans="1:3" ht="45">
       <c r="A81" s="17" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C81" s="22"/>
     </row>
     <row r="82" spans="1:3" ht="45">
       <c r="A82" s="17" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C82" s="22"/>
     </row>
     <row r="83" spans="1:3" ht="30">
       <c r="A83" s="17" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C83" s="22"/>
     </row>
     <row r="84" spans="1:3" ht="30">
       <c r="A84" s="17" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C84" s="22"/>
     </row>
     <row r="85" spans="1:3" ht="30">
       <c r="A85" s="17" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C85" s="22"/>
     </row>
     <row r="86" spans="1:3" ht="75">
       <c r="A86" s="17" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C86" s="22"/>
     </row>
     <row r="87" spans="1:3" ht="30">
       <c r="A87" s="17" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C87" s="22"/>
     </row>
     <row r="88" spans="1:3" ht="30">
       <c r="A88" s="17" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C88" s="22"/>
     </row>
     <row r="89" spans="1:3" ht="45">
       <c r="A89" s="17" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="45">
       <c r="A90" s="17" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="45">
       <c r="A91" s="17" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="45">
       <c r="A92" s="17" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="30">
       <c r="A93" s="17" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="30">
       <c r="A94" s="17" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="30">
       <c r="A95" s="17" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="75">
       <c r="A96" s="17" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="30">
       <c r="A97" s="17" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="30">
       <c r="A98" s="17" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>
